--- a/storage/OKOK.xlsx
+++ b/storage/OKOK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/KODING/PEMDESDAHBOARD/pemdes_dash/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9715894-14DA-E245-BEA9-2431336326FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF4029-0453-754A-8543-DF398E163DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2D886F7D-B95C-A144-9CED-853FED6D7C3C}"/>
+    <workbookView xWindow="-38400" yWindow="-9320" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2D886F7D-B95C-A144-9CED-853FED6D7C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>WILAYAH PEMERINTAHAN</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>ANGGARAN KONVERGENSI PENCEGAHAN STUNTING</t>
+  </si>
+  <si>
+    <t>REKAP LAPORAN</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,9 +423,6 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -432,6 +432,12 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6606701-2ED4-4348-A0B5-2011BFC2F48C}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,92 +766,114 @@
     <col min="1" max="5" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="3">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3">
-        <v>93.94</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="3">
-        <v>434</v>
-      </c>
-      <c r="D4" s="3">
-        <v>189</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43.55</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>2020</v>
       </c>
       <c r="C5" s="3">
-        <v>7141</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
-        <v>2697</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>37.770000000000003</v>
+        <v>93.94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>2020</v>
       </c>
       <c r="C6" s="3">
+        <v>434</v>
+      </c>
+      <c r="D6" s="3">
+        <v>189</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7141</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2697</v>
+      </c>
+      <c r="E7" s="3">
+        <v>37.770000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="3">
         <v>74957</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>29959</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E8" s="3">
         <v>39.97</v>
       </c>
     </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:H21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -855,7 +883,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,13 +892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -970,7 +998,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,13 +1008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1060,13 +1088,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1260,13 +1288,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1426,10 +1454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1443,7 +1471,7 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1277</v>
       </c>
     </row>
@@ -1451,7 +1479,7 @@
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1157</v>
       </c>
     </row>
@@ -1459,7 +1487,7 @@
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1096667400</v>
       </c>
     </row>
@@ -1485,11 +1513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1503,13 +1531,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>26753672933136</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.5065557396909417</v>
       </c>
     </row>
@@ -1523,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03084443-DC05-0648-BCA6-51DBBB8817EB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,79 +1563,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5">
-        <v>52814864854673</v>
-      </c>
-      <c r="C3" s="6">
-        <v>11636093692585.5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1762904798.3800001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>388400603.91000003</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6">
-        <v>51154914119148</v>
-      </c>
-      <c r="C4" s="6">
-        <v>981823253.63999999</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1707497383.73</v>
-      </c>
-      <c r="E4" s="6">
-        <v>32772.230000000003</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>52814864854673</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11636093692585.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1762904798.3800001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>388400603.91000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>51154914119148</v>
+      </c>
+      <c r="C6" s="6">
+        <v>981823253.63999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1707497383.73</v>
+      </c>
+      <c r="E6" s="6">
+        <v>32772.230000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7" s="6">
         <v>1992672202004.4399</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <v>390725158071.83002</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D7" s="6">
         <v>66513308.25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="6">
         <v>13041996</v>
       </c>
     </row>
@@ -1624,7 +1666,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,13 +1675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1722,7 +1764,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,13 +1773,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1841,7 +1883,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1850,13 +1892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1956,7 +1998,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,13 +2007,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2105,7 +2147,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,13 +2156,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2237,7 +2279,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2246,13 +2288,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2352,7 +2394,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,13 +2404,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
